--- a/static/student.xlsx
+++ b/static/student.xlsx
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -217,24 +217,7 @@
       <color rgb="FF000000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -300,173 +283,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>636480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1398960" y="829080"/>
-          <a:ext cx="2000520" cy="1018800"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20833"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="d99694"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3a5f8b"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>学生的每一条信息都必须填写，请</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="ff0000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>注意输入正确的学生学号</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>，避免学生答题时无法通过验证</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>569880</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="569880" y="6039000"/>
-          <a:ext cx="1748160" cy="523440"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -20114"/>
-            <a:gd name="adj2" fmla="val 101223"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="d99694"/>
-        </a:solidFill>
-        <a:ln w="25560">
-          <a:solidFill>
-            <a:srgbClr val="3a5f8b"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>这里要选择</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Sheet1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>，请保持默认不要修改</a:t>
-          </a:r>
-          <a:endParaRPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -650,6 +466,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>